--- a/ground_truth.xlsx
+++ b/ground_truth.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6916107A-BDF6-4582-BC27-1137DDB0E898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theakaroline/Documents/GitHub/cherry2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86E880F-733B-B64A-AB9A-ED6D7149BD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,7 +403,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -694,18 +699,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="T87" sqref="T87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -728,7 +733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -751,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -774,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -797,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -820,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -843,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -866,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -889,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -912,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -935,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -958,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -981,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1004,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1027,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1050,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1073,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1096,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1119,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1142,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1165,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1188,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1211,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1234,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1257,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1280,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1303,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1326,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1349,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1372,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1395,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1418,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1441,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1464,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1487,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1510,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1533,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1556,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1579,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1602,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1625,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1648,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1671,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1694,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1717,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1740,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1763,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1786,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1809,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1832,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -1855,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1878,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1901,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1924,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -1947,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -1970,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -1993,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -2016,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -2039,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -2062,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -2085,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -2108,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -2131,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -2154,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -2177,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -2200,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -2223,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -2246,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -2269,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -2292,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -2315,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -2338,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -2361,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -2384,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -2407,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -2430,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -2453,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -2476,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -2499,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -2522,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -2545,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -2568,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -2591,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -2614,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -2637,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -2660,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -2683,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -2706,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -2729,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -2752,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -2775,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -2798,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -2821,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -2844,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -2867,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -2890,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -2913,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -2936,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -2959,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -2980,6 +2985,32 @@
       </c>
       <c r="G99">
         <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <f>SUM(B2:B99)</f>
+        <v>41</v>
+      </c>
+      <c r="C100">
+        <f>SUM(C2:C99)</f>
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <f>SUM(D2:D99)</f>
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <f>SUM(E2:E99)</f>
+        <v>30</v>
+      </c>
+      <c r="F100">
+        <f>SUM(F2:F99)</f>
+        <v>8</v>
+      </c>
+      <c r="G100">
+        <f>SUM(G2:G99)</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
